--- a/unit5_buildImage/unit5_buildimage.xlsx
+++ b/unit5_buildImage/unit5_buildimage.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1742C51F-647B-41F4-AECA-16B3D1D94FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Step" sheetId="2" r:id="rId1"/>
-    <sheet name="Toolchain là gì" sheetId="1" r:id="rId2"/>
-    <sheet name="UBoot là gì" sheetId="3" r:id="rId3"/>
-    <sheet name="Menuconfig là gì" sheetId="4" r:id="rId4"/>
-    <sheet name="RootFS là gì" sheetId="5" r:id="rId5"/>
-    <sheet name="Mount tập tin" sheetId="6" r:id="rId6"/>
-    <sheet name="uEnv.txt là gì" sheetId="7" r:id="rId7"/>
-    <sheet name="Sản phẩm của build Kernel" sheetId="8" r:id="rId8"/>
-    <sheet name="File Systems Table" sheetId="9" r:id="rId9"/>
-    <sheet name="Cross Compiler" sheetId="10" r:id="rId10"/>
+    <sheet name="MucLuc" sheetId="11" r:id="rId1"/>
+    <sheet name="Step" sheetId="2" r:id="rId2"/>
+    <sheet name="Toolchain là gì" sheetId="1" r:id="rId3"/>
+    <sheet name="UBoot là gì" sheetId="3" r:id="rId4"/>
+    <sheet name="Menuconfig là gì" sheetId="4" r:id="rId5"/>
+    <sheet name="RootFS là gì" sheetId="5" r:id="rId6"/>
+    <sheet name="Mount tập tin" sheetId="6" r:id="rId7"/>
+    <sheet name="uEnv.txt là gì" sheetId="7" r:id="rId8"/>
+    <sheet name="Sản phẩm của build Kernel" sheetId="8" r:id="rId9"/>
+    <sheet name="File Systems Table" sheetId="9" r:id="rId10"/>
+    <sheet name="Cross Compiler" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="514">
   <si>
     <t>📦 Toolchain để build image là gì?</t>
   </si>
@@ -40,7 +42,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -51,7 +53,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -61,7 +63,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -86,7 +88,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -96,7 +98,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -107,7 +109,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -117,7 +119,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -136,7 +138,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -146,7 +148,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -207,7 +209,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -217,7 +219,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -262,7 +264,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -288,7 +290,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -364,7 +366,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -374,7 +376,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -390,7 +392,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -400,7 +402,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -448,7 +450,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -463,7 +465,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -481,7 +483,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -496,7 +498,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -511,7 +513,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -529,7 +531,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -547,7 +549,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -562,7 +564,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -577,7 +579,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -658,7 +660,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -673,7 +675,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -688,7 +690,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -703,7 +705,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -718,7 +720,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -733,7 +735,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -744,7 +746,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -754,7 +756,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -765,7 +767,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -775,7 +777,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -786,7 +788,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -796,7 +798,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -856,7 +858,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -881,7 +883,7 @@
         <b/>
         <sz val="13.5"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -897,7 +899,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -920,7 +922,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -938,7 +940,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -956,7 +958,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -974,7 +976,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -990,7 +992,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1009,7 +1011,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1028,7 +1030,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1047,7 +1049,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1070,7 +1072,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1088,7 +1090,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1106,7 +1108,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1124,7 +1126,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1140,7 +1142,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1155,7 +1157,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1173,7 +1175,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1188,7 +1190,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1206,7 +1208,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1224,7 +1226,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1239,7 +1241,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1257,7 +1259,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1273,7 +1275,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1304,7 +1306,7 @@
         <b/>
         <sz val="13.5"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1320,7 +1322,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1330,7 +1332,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1348,7 +1350,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1366,7 +1368,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1384,7 +1386,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1402,7 +1404,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1418,7 +1420,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1428,7 +1430,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1453,7 +1455,7 @@
         <b/>
         <sz val="13.5"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1511,7 +1513,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1539,7 +1541,7 @@
         <b/>
         <sz val="13.5"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1562,7 +1564,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1593,7 +1595,7 @@
         <b/>
         <sz val="18"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1623,7 +1625,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1634,7 +1636,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1644,7 +1646,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1655,7 +1657,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1665,7 +1667,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1676,7 +1678,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1686,7 +1688,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1697,7 +1699,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1707,7 +1709,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1725,7 +1727,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1756,7 +1758,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1774,7 +1776,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1792,7 +1794,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1819,7 +1821,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1845,7 +1847,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1871,7 +1873,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1889,7 +1891,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1910,7 +1912,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1925,7 +1927,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1940,7 +1942,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1951,7 +1953,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1961,7 +1963,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1976,7 +1978,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1995,7 +1997,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2005,7 +2007,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2023,7 +2025,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2041,7 +2043,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2059,7 +2061,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2074,7 +2076,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2092,7 +2094,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2110,7 +2112,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2128,7 +2130,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2146,7 +2148,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2161,7 +2163,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2179,7 +2181,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2197,7 +2199,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2215,7 +2217,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2230,7 +2232,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2248,7 +2250,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2266,7 +2268,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2281,7 +2283,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2313,7 +2315,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2328,7 +2330,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2339,7 +2341,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2374,7 +2376,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2393,7 +2395,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2403,7 +2405,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2414,7 +2416,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2424,7 +2426,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2435,7 +2437,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2458,7 +2460,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2476,7 +2478,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2494,7 +2496,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2519,7 +2521,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2529,7 +2531,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2547,7 +2549,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2565,7 +2567,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2851,7 +2853,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2861,7 +2863,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2883,7 +2885,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2893,7 +2895,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2912,7 +2914,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2922,7 +2924,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2933,7 +2935,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2943,7 +2945,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3004,7 +3006,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3014,7 +3016,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3049,7 +3051,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3097,7 +3099,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3115,7 +3117,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3202,7 +3204,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3212,7 +3214,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3228,7 +3230,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3238,7 +3240,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3578,7 +3580,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3593,7 +3595,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3616,7 +3618,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3663,7 +3665,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3697,7 +3699,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3744,7 +3746,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3754,7 +3756,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3769,7 +3771,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3784,7 +3786,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3799,7 +3801,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3814,7 +3816,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3998,7 +4000,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4009,7 +4011,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4019,7 +4021,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4030,7 +4032,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4040,7 +4042,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4063,7 +4065,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4081,7 +4083,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4104,7 +4106,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4122,7 +4124,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4145,7 +4147,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4168,7 +4170,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4186,7 +4188,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4209,7 +4211,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4256,7 +4258,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4271,7 +4273,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4286,7 +4288,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4301,7 +4303,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4326,7 +4328,7 @@
         <b/>
         <sz val="18"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4341,7 +4343,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4356,7 +4358,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4371,7 +4373,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4396,7 +4398,7 @@
         <b/>
         <sz val="18"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4434,7 +4436,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4455,7 +4457,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4473,7 +4475,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4491,7 +4493,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4509,7 +4511,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4527,7 +4529,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4550,7 +4552,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4561,7 +4563,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4571,7 +4573,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4871,7 +4873,7 @@
         <b/>
         <sz val="18"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4894,7 +4896,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4905,7 +4907,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4915,7 +4917,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4926,7 +4928,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4936,7 +4938,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4947,7 +4949,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4957,7 +4959,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4973,7 +4975,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4983,7 +4985,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5034,7 +5036,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5045,7 +5047,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5055,7 +5057,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5074,7 +5076,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5084,7 +5086,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5108,7 +5110,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5126,7 +5128,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5149,7 +5151,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5167,7 +5169,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5183,7 +5185,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5193,7 +5195,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5204,7 +5206,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5214,7 +5216,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5243,7 +5245,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5266,7 +5268,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5289,7 +5291,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5336,7 +5338,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5354,7 +5356,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5372,7 +5374,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5398,7 +5400,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5429,7 +5431,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5450,7 +5452,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5461,7 +5463,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5471,7 +5473,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5486,7 +5488,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5497,7 +5499,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5507,7 +5509,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5518,7 +5520,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5528,7 +5530,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5539,7 +5541,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5549,7 +5551,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5560,7 +5562,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5570,7 +5572,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5589,7 +5591,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5599,7 +5601,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5615,7 +5617,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5625,7 +5627,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5648,7 +5650,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5671,7 +5673,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5731,7 +5733,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5770,7 +5772,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5781,7 +5783,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5791,7 +5793,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5802,7 +5804,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5812,7 +5814,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5823,7 +5825,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5833,7 +5835,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5852,7 +5854,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5862,7 +5864,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5886,7 +5888,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5915,7 +5917,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5934,7 +5936,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5944,7 +5946,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5962,7 +5964,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5980,7 +5982,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5998,7 +6000,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6024,7 +6026,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6042,7 +6044,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6060,7 +6062,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6078,7 +6080,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6097,7 +6099,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6107,7 +6109,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6125,7 +6127,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6143,7 +6145,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6161,7 +6163,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6179,7 +6181,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6216,7 +6218,7 @@
         <b/>
         <sz val="13.5"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6249,7 +6251,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6260,7 +6262,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6270,7 +6272,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6304,7 +6306,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6314,7 +6316,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6332,7 +6334,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6347,7 +6349,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6358,7 +6360,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6368,7 +6370,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6383,7 +6385,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6401,7 +6403,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6419,7 +6421,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6437,7 +6439,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6455,7 +6457,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6478,7 +6480,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6496,7 +6498,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6514,7 +6516,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6532,7 +6534,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6548,7 +6550,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6558,7 +6560,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6574,7 +6576,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6584,7 +6586,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6602,7 +6604,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6617,7 +6619,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6640,7 +6642,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6658,7 +6660,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6676,7 +6678,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6694,23 +6696,53 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>.</t>
     </r>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Toolchain là gì</t>
+  </si>
+  <si>
+    <t>UBoot là gì'</t>
+  </si>
+  <si>
+    <t>Menuconfig là gì</t>
+  </si>
+  <si>
+    <t>RootFS là gì</t>
+  </si>
+  <si>
+    <t>Mount tập tin</t>
+  </si>
+  <si>
+    <t>uEnv.txt là gì</t>
+  </si>
+  <si>
+    <t>Sản phẩm của build Kernel</t>
+  </si>
+  <si>
+    <t>File Systems Table</t>
+  </si>
+  <si>
+    <t>Cross Compiler</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6718,7 +6750,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6726,7 +6758,7 @@
       <b/>
       <sz val="24"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6739,14 +6771,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6754,7 +6786,7 @@
       <b/>
       <sz val="13.5"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6780,7 +6812,7 @@
       <b/>
       <sz val="18"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6794,7 +6826,7 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6802,7 +6834,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -6817,7 +6849,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF222222"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -6865,14 +6897,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6880,7 +6912,7 @@
       <b/>
       <sz val="18"/>
       <color rgb="FF00B0F0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6888,15 +6920,41 @@
       <b/>
       <sz val="13.5"/>
       <color rgb="FF00B0F0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -6969,10 +7027,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -7029,7 +7088,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7037,16 +7095,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7067,26 +7143,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7472,7 +7534,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Right Brace 4"/>
+        <xdr:cNvPr id="5" name="Right Brace 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7645,7 +7713,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7933,14 +8007,416 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB039039-0D59-462A-A378-CAF13232EB1A}">
+  <dimension ref="B2:B20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="16384" width="8.796875" style="49"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="50" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="51" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="51" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="51" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="51" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="51" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="51" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="51" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="51" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="51" t="s">
+        <v>513</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" location="Step!A1" display="Step" xr:uid="{1135314C-6DD4-4138-A711-BF954155A5D6}"/>
+    <hyperlink ref="B4" location="'Toolchain là gì'!A1" display="'Toolchain là gì" xr:uid="{6F874399-8D34-4430-89C2-0E5294F0FB3D}"/>
+    <hyperlink ref="B6" location="'UBoot là gì'!A1" display="'UBoot là gì'" xr:uid="{46D1502F-07C3-4E7A-B07B-8F422317BE93}"/>
+    <hyperlink ref="B8" location="'Menuconfig là gì'!A1" display="'Menuconfig là gì" xr:uid="{B4221BC8-D44A-40CD-B0FC-DBAD24BABEF5}"/>
+    <hyperlink ref="B10" location="'RootFS là gì'!A1" display="'RootFS là gì" xr:uid="{333746C9-9E34-4EFF-AFDA-8376512ED469}"/>
+    <hyperlink ref="B12" location="'Mount tập tin'!A1" display="'Mount tập tin" xr:uid="{40D24A4D-BDAE-419F-AD2B-2EBCCCED8823}"/>
+    <hyperlink ref="B14" location="'uEnv.txt là gì'!A1" display="'uEnv.txt là gì" xr:uid="{0F48E1AC-BAF7-4857-A131-6127DABFDBAC}"/>
+    <hyperlink ref="B16" location="'Sản phẩm của build Kernel'!A1" display="'Sản phẩm của build Kernel" xr:uid="{FAC02F46-83F2-4BB7-BB8E-3A6920998DDA}"/>
+    <hyperlink ref="B18" location="'File Systems Table'!A1" display="'File Systems Table" xr:uid="{4B825613-59B3-48F0-93CB-D640CF8E1496}"/>
+    <hyperlink ref="B20" location="'Cross Compiler'!A1" display="'Cross Compiler" xr:uid="{468A01D3-BF0C-493F-B59D-D83135D518DD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:L43"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="17.399999999999999">
+      <c r="A1" s="7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="36" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="17.399999999999999">
+      <c r="A3" s="7" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="B7" s="40" t="s">
+        <v>467</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8" s="41" t="s">
+        <v>468</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="39" t="s">
+        <v>469</v>
+      </c>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="B9" s="41" t="s">
+        <v>470</v>
+      </c>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="39" t="s">
+        <v>471</v>
+      </c>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="B10" s="41" t="s">
+        <v>472</v>
+      </c>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="39" t="s">
+        <v>473</v>
+      </c>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="B11" s="41" t="s">
+        <v>474</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="39" t="s">
+        <v>475</v>
+      </c>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="B12" s="41" t="s">
+        <v>476</v>
+      </c>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="39" t="s">
+        <v>477</v>
+      </c>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="B13" s="41" t="s">
+        <v>478</v>
+      </c>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="39" t="s">
+        <v>479</v>
+      </c>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+    </row>
+    <row r="15" spans="1:12" ht="17.399999999999999">
+      <c r="A15" s="7" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="9" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="9" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="9" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="9" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="17.399999999999999">
+      <c r="A21" s="7" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="37" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="8" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="10" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="8" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="10" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="10" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="10"/>
+    </row>
+    <row r="30" spans="1:1" ht="17.399999999999999">
+      <c r="A30" s="7" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="8"/>
+    </row>
+    <row r="35" spans="1:1" ht="17.399999999999999">
+      <c r="A35" s="7" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="8" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="10" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="3"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="38" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="10" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="3"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="8" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="10" t="s">
+        <v>503</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="E13:L13"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E7:L7"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="E9:L9"/>
+    <mergeCell ref="E10:L10"/>
+    <mergeCell ref="E11:L11"/>
+    <mergeCell ref="E12:L12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="U21" sqref="U21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T136"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A105" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A58" workbookViewId="0">
       <selection activeCell="F134" sqref="F134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
@@ -8054,12 +8530,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="16.5">
+    <row r="53" spans="1:20" ht="16.2">
       <c r="B53" s="22" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="16.5">
+    <row r="54" spans="1:20" ht="16.2">
       <c r="B54" s="22" t="s">
         <v>210</v>
       </c>
@@ -8069,16 +8545,16 @@
         <v>211</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="15.75">
+    <row r="57" spans="1:20" ht="15">
       <c r="B57" s="23" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="59" spans="1:20">
-      <c r="O59" s="25" t="s">
+      <c r="O59" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="P59" s="24" t="s">
+      <c r="P59" t="s">
         <v>213</v>
       </c>
     </row>
@@ -8090,16 +8566,16 @@
         <v>216</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="16.5">
-      <c r="B71" s="26" t="s">
+    <row r="71" spans="1:8" ht="16.2">
+      <c r="B71" s="25" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="16.5">
-      <c r="B72" s="26" t="s">
+    <row r="72" spans="1:8" ht="16.2">
+      <c r="B72" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="H72" s="25" t="s">
+      <c r="H72" s="24" t="s">
         <v>219</v>
       </c>
     </row>
@@ -8108,13 +8584,13 @@
         <v>220</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="16.5">
-      <c r="B75" s="26" t="s">
+    <row r="75" spans="1:8" ht="16.2">
+      <c r="B75" s="25" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="16.5">
-      <c r="B76" s="26" t="s">
+    <row r="76" spans="1:8" ht="16.2">
+      <c r="B76" s="25" t="s">
         <v>222</v>
       </c>
     </row>
@@ -8123,87 +8599,87 @@
         <v>288</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="16.5">
-      <c r="B79" s="26" t="s">
+    <row r="79" spans="1:8" ht="16.2">
+      <c r="B79" s="25" t="s">
         <v>289</v>
       </c>
-      <c r="E79" s="25" t="s">
+      <c r="E79" s="24" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="16.5">
-      <c r="B80" s="26" t="s">
+    <row r="80" spans="1:8" ht="16.2">
+      <c r="B80" s="25" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="16.5">
-      <c r="B81" s="27" t="s">
+    <row r="81" spans="1:11" ht="16.2">
+      <c r="B81" s="26" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="16.5">
-      <c r="B82" s="27" t="s">
+    <row r="82" spans="1:11" ht="16.2">
+      <c r="B82" s="26" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="16.5">
-      <c r="B84" s="26" t="s">
+    <row r="84" spans="1:11" ht="16.2">
+      <c r="B84" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="E84" s="25" t="s">
+      <c r="E84" s="24" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="16.5">
-      <c r="B85" s="28" t="s">
+    <row r="85" spans="1:11" ht="16.2">
+      <c r="B85" s="27" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="16.5">
-      <c r="B86" s="26" t="s">
+    <row r="86" spans="1:11" ht="16.2">
+      <c r="B86" s="25" t="s">
         <v>296</v>
       </c>
       <c r="K86" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="16.5">
-      <c r="B88" s="28" t="s">
+    <row r="88" spans="1:11" ht="16.2">
+      <c r="B88" s="27" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="16.5">
-      <c r="B89" s="26" t="s">
+    <row r="89" spans="1:11" ht="16.2">
+      <c r="B89" s="25" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="15.75">
+    <row r="91" spans="1:11" ht="15">
       <c r="A91" s="23" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="16.5">
-      <c r="B92" s="26" t="s">
+    <row r="92" spans="1:11" ht="16.2">
+      <c r="B92" s="25" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="16.5">
-      <c r="B93" s="28" t="s">
+    <row r="93" spans="1:11" ht="16.2">
+      <c r="B93" s="27" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="16.5">
-      <c r="B94" s="26" t="s">
+    <row r="94" spans="1:11" ht="16.2">
+      <c r="B94" s="25" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="16.5">
-      <c r="B96" s="28" t="s">
+    <row r="96" spans="1:11" ht="16.2">
+      <c r="B96" s="27" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="16.5">
-      <c r="B97" s="26" t="s">
+    <row r="97" spans="1:9" ht="16.2">
+      <c r="B97" s="25" t="s">
         <v>303</v>
       </c>
     </row>
@@ -8212,23 +8688,23 @@
         <v>337</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="16.5">
-      <c r="B100" s="26" t="s">
+    <row r="100" spans="1:9" ht="16.2">
+      <c r="B100" s="25" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="16.5">
-      <c r="B101" s="26" t="s">
+    <row r="101" spans="1:9" ht="16.2">
+      <c r="B101" s="25" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="16.5">
-      <c r="B102" s="26" t="s">
+    <row r="102" spans="1:9" ht="16.2">
+      <c r="B102" s="25" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="25" t="s">
+      <c r="A104" s="24" t="s">
         <v>341</v>
       </c>
     </row>
@@ -8237,13 +8713,13 @@
         <v>344</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="16.5">
-      <c r="B106" s="26" t="s">
+    <row r="106" spans="1:9" ht="16.2">
+      <c r="B106" s="25" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="16.5">
-      <c r="B107" s="26" t="s">
+    <row r="107" spans="1:9" ht="16.2">
+      <c r="B107" s="25" t="s">
         <v>343</v>
       </c>
     </row>
@@ -8265,8 +8741,8 @@
         <v>383</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="16.5">
-      <c r="B113" s="40" t="s">
+    <row r="113" spans="1:20" ht="16.2">
+      <c r="B113" s="29" t="s">
         <v>384</v>
       </c>
     </row>
@@ -8275,16 +8751,16 @@
         <v>385</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="16.5">
-      <c r="B116" s="40" t="s">
+    <row r="116" spans="1:20" ht="16.2">
+      <c r="B116" s="29" t="s">
         <v>386</v>
       </c>
       <c r="T116" s="21" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="16.5">
-      <c r="B117" s="40" t="s">
+    <row r="117" spans="1:20" ht="16.2">
+      <c r="B117" s="29" t="s">
         <v>387</v>
       </c>
     </row>
@@ -8293,8 +8769,8 @@
         <v>388</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="16.5">
-      <c r="B120" s="40" t="s">
+    <row r="120" spans="1:20" ht="16.2">
+      <c r="B120" s="29" t="s">
         <v>389</v>
       </c>
     </row>
@@ -8303,8 +8779,8 @@
         <v>390</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="16.5">
-      <c r="B123" s="40" t="s">
+    <row r="123" spans="1:20" ht="16.2">
+      <c r="B123" s="29" t="s">
         <v>391</v>
       </c>
     </row>
@@ -8313,8 +8789,8 @@
         <v>392</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="16.5">
-      <c r="B126" s="40" t="s">
+    <row r="126" spans="1:20" ht="16.2">
+      <c r="B126" s="29" t="s">
         <v>393</v>
       </c>
     </row>
@@ -8323,23 +8799,23 @@
         <v>394</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="16.5">
-      <c r="C128" s="41" t="s">
+    <row r="128" spans="1:20" ht="16.2">
+      <c r="C128" s="30" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="16.5">
-      <c r="C129" s="41" t="s">
+    <row r="129" spans="1:3" ht="16.2">
+      <c r="C129" s="30" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="16.5">
-      <c r="C131" s="41" t="s">
+    <row r="131" spans="1:3" ht="16.2">
+      <c r="C131" s="30" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="16.5">
-      <c r="C132" s="41" t="s">
+    <row r="132" spans="1:3" ht="16.2">
+      <c r="C132" s="30" t="s">
         <v>398</v>
       </c>
     </row>
@@ -8348,13 +8824,13 @@
         <v>399</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="16.5">
-      <c r="B135" s="40" t="s">
+    <row r="135" spans="1:3" ht="16.2">
+      <c r="B135" s="29" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="16.5">
-      <c r="B136" s="40" t="s">
+    <row r="136" spans="1:3" ht="16.2">
+      <c r="B136" s="29" t="s">
         <v>400</v>
       </c>
     </row>
@@ -8365,32 +8841,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="L22" sqref="L22:L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="31.5">
+    <row r="1" spans="1:10" ht="30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8430,192 +8891,192 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="31.5">
+    <row r="10" spans="1:10" ht="30">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30" t="s">
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="31" t="s">
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="31" t="s">
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="31" t="s">
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="31" t="s">
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="31" t="s">
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="31" t="s">
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="31.5">
+    <row r="22" spans="1:10" ht="30">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30" t="s">
+      <c r="C23" s="40"/>
+      <c r="D23" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="32" t="s">
+      <c r="C24" s="39"/>
+      <c r="D24" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="32" t="s">
+      <c r="C25" s="39"/>
+      <c r="D25" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="32" t="s">
+      <c r="C26" s="39"/>
+      <c r="D26" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="32" t="s">
+      <c r="C27" s="39"/>
+      <c r="D27" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-    </row>
-    <row r="30" spans="1:10" ht="31.5">
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+    </row>
+    <row r="30" spans="1:10" ht="30">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -8640,69 +9101,87 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="31.5">
+    <row r="36" spans="1:9" ht="30">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30" t="s">
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31" t="s">
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
     </row>
     <row r="40" spans="1:9" ht="29.25" customHeight="1">
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31" t="s">
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31" t="s">
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="D27:H27"/>
     <mergeCell ref="E18:J18"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
@@ -8717,44 +9196,26 @@
     <mergeCell ref="E15:J15"/>
     <mergeCell ref="E16:J16"/>
     <mergeCell ref="E17:J17"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="E41:I41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U87"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18">
+    <row r="1" spans="1:3" ht="17.399999999999999">
       <c r="A1" s="7" t="s">
         <v>55</v>
       </c>
@@ -8779,7 +9240,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18">
+    <row r="7" spans="1:3" ht="17.399999999999999">
       <c r="A7" s="7" t="s">
         <v>59</v>
       </c>
@@ -8824,7 +9285,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="18">
+    <row r="17" spans="1:14" ht="17.399999999999999">
       <c r="A17" s="7" t="s">
         <v>68</v>
       </c>
@@ -8844,7 +9305,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="18">
+    <row r="22" spans="1:14" ht="17.399999999999999">
       <c r="A22" s="7" t="s">
         <v>72</v>
       </c>
@@ -8874,7 +9335,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="18">
+    <row r="29" spans="1:14" ht="17.399999999999999">
       <c r="A29" s="7" t="s">
         <v>78</v>
       </c>
@@ -8883,43 +9344,43 @@
       <c r="B31" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
       <c r="N31" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="23.25">
+    <row r="32" spans="1:14" ht="22.8">
       <c r="B32" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
       <c r="N32" s="20" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="18">
+    <row r="33" spans="1:20" ht="17.399999999999999">
       <c r="B33" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
       <c r="N33" s="7" t="s">
         <v>225</v>
       </c>
@@ -8928,28 +9389,28 @@
       <c r="B34" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
       <c r="N34" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="18">
+    <row r="35" spans="1:20" ht="17.399999999999999">
       <c r="B35" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
       <c r="N35" s="7" t="s">
         <v>227</v>
       </c>
@@ -8980,7 +9441,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="18">
+    <row r="40" spans="1:20" ht="17.399999999999999">
       <c r="B40" s="9" t="s">
         <v>89</v>
       </c>
@@ -8992,95 +9453,95 @@
       <c r="B41" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="O41" s="37" t="s">
+      <c r="O41" s="46" t="s">
         <v>233</v>
       </c>
-      <c r="P41" s="38"/>
-      <c r="Q41" s="37" t="s">
+      <c r="P41" s="47"/>
+      <c r="Q41" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="R41" s="39"/>
-      <c r="S41" s="39"/>
-      <c r="T41" s="38"/>
+      <c r="R41" s="48"/>
+      <c r="S41" s="48"/>
+      <c r="T41" s="47"/>
     </row>
     <row r="42" spans="1:20">
       <c r="B42" s="9" t="s">
         <v>89</v>
       </c>
       <c r="N42" s="3"/>
-      <c r="O42" s="34" t="s">
+      <c r="O42" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="P42" s="36"/>
-      <c r="Q42" s="34" t="s">
+      <c r="P42" s="45"/>
+      <c r="Q42" s="43" t="s">
         <v>235</v>
       </c>
-      <c r="R42" s="35"/>
-      <c r="S42" s="35"/>
-      <c r="T42" s="36"/>
+      <c r="R42" s="44"/>
+      <c r="S42" s="44"/>
+      <c r="T42" s="45"/>
     </row>
     <row r="43" spans="1:20">
       <c r="B43" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="O43" s="34" t="s">
+      <c r="O43" s="43" t="s">
         <v>236</v>
       </c>
-      <c r="P43" s="36"/>
-      <c r="Q43" s="34" t="s">
+      <c r="P43" s="45"/>
+      <c r="Q43" s="43" t="s">
         <v>237</v>
       </c>
-      <c r="R43" s="35"/>
-      <c r="S43" s="35"/>
-      <c r="T43" s="36"/>
+      <c r="R43" s="44"/>
+      <c r="S43" s="44"/>
+      <c r="T43" s="45"/>
     </row>
     <row r="44" spans="1:20">
       <c r="B44" s="9" t="s">
         <v>89</v>
       </c>
       <c r="N44" s="3"/>
-      <c r="O44" s="34" t="s">
+      <c r="O44" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="P44" s="36"/>
-      <c r="Q44" s="34" t="s">
+      <c r="P44" s="45"/>
+      <c r="Q44" s="43" t="s">
         <v>239</v>
       </c>
-      <c r="R44" s="35"/>
-      <c r="S44" s="35"/>
-      <c r="T44" s="36"/>
+      <c r="R44" s="44"/>
+      <c r="S44" s="44"/>
+      <c r="T44" s="45"/>
     </row>
     <row r="45" spans="1:20">
       <c r="B45" s="9" t="s">
         <v>92</v>
       </c>
       <c r="N45" s="3"/>
-      <c r="O45" s="34" t="s">
+      <c r="O45" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="P45" s="36"/>
-      <c r="Q45" s="34" t="s">
+      <c r="P45" s="45"/>
+      <c r="Q45" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="R45" s="35"/>
-      <c r="S45" s="35"/>
-      <c r="T45" s="36"/>
+      <c r="R45" s="44"/>
+      <c r="S45" s="44"/>
+      <c r="T45" s="45"/>
     </row>
     <row r="46" spans="1:20">
       <c r="B46" s="9" t="s">
         <v>89</v>
       </c>
       <c r="N46" s="10"/>
-      <c r="O46" s="34" t="s">
+      <c r="O46" s="43" t="s">
         <v>242</v>
       </c>
-      <c r="P46" s="36"/>
-      <c r="Q46" s="34" t="s">
+      <c r="P46" s="45"/>
+      <c r="Q46" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="R46" s="35"/>
-      <c r="S46" s="35"/>
-      <c r="T46" s="36"/>
+      <c r="R46" s="44"/>
+      <c r="S46" s="44"/>
+      <c r="T46" s="45"/>
     </row>
     <row r="47" spans="1:20">
       <c r="B47" s="9" t="s">
@@ -9161,7 +9622,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="18">
+    <row r="59" spans="1:21" ht="17.399999999999999">
       <c r="A59" s="2" t="s">
         <v>99</v>
       </c>
@@ -9178,111 +9639,111 @@
       <c r="A61" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="O61" s="30" t="s">
+      <c r="O61" s="40" t="s">
         <v>233</v>
       </c>
-      <c r="P61" s="30"/>
-      <c r="Q61" s="30"/>
-      <c r="R61" s="30" t="s">
+      <c r="P61" s="40"/>
+      <c r="Q61" s="40"/>
+      <c r="R61" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="S61" s="30"/>
-      <c r="T61" s="30"/>
-      <c r="U61" s="30"/>
+      <c r="S61" s="40"/>
+      <c r="T61" s="40"/>
+      <c r="U61" s="40"/>
     </row>
     <row r="62" spans="1:21">
       <c r="A62" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="O62" s="31" t="s">
+      <c r="O62" s="39" t="s">
         <v>252</v>
       </c>
-      <c r="P62" s="31"/>
-      <c r="Q62" s="31"/>
-      <c r="R62" s="31" t="s">
+      <c r="P62" s="39"/>
+      <c r="Q62" s="39"/>
+      <c r="R62" s="39" t="s">
         <v>253</v>
       </c>
-      <c r="S62" s="31"/>
-      <c r="T62" s="31"/>
-      <c r="U62" s="31"/>
+      <c r="S62" s="39"/>
+      <c r="T62" s="39"/>
+      <c r="U62" s="39"/>
     </row>
     <row r="63" spans="1:21">
       <c r="A63" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="O63" s="31" t="s">
+      <c r="O63" s="39" t="s">
         <v>254</v>
       </c>
-      <c r="P63" s="31"/>
-      <c r="Q63" s="31"/>
-      <c r="R63" s="31" t="s">
+      <c r="P63" s="39"/>
+      <c r="Q63" s="39"/>
+      <c r="R63" s="39" t="s">
         <v>255</v>
       </c>
-      <c r="S63" s="31"/>
-      <c r="T63" s="31"/>
-      <c r="U63" s="31"/>
+      <c r="S63" s="39"/>
+      <c r="T63" s="39"/>
+      <c r="U63" s="39"/>
     </row>
     <row r="64" spans="1:21">
       <c r="A64" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="O64" s="31" t="s">
+      <c r="O64" s="39" t="s">
         <v>256</v>
       </c>
-      <c r="P64" s="31"/>
-      <c r="Q64" s="31"/>
-      <c r="R64" s="31" t="s">
+      <c r="P64" s="39"/>
+      <c r="Q64" s="39"/>
+      <c r="R64" s="39" t="s">
         <v>257</v>
       </c>
-      <c r="S64" s="31"/>
-      <c r="T64" s="31"/>
-      <c r="U64" s="31"/>
+      <c r="S64" s="39"/>
+      <c r="T64" s="39"/>
+      <c r="U64" s="39"/>
     </row>
     <row r="65" spans="1:21">
-      <c r="O65" s="31" t="s">
+      <c r="O65" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="P65" s="31"/>
-      <c r="Q65" s="31"/>
-      <c r="R65" s="31" t="s">
+      <c r="P65" s="39"/>
+      <c r="Q65" s="39"/>
+      <c r="R65" s="39" t="s">
         <v>259</v>
       </c>
-      <c r="S65" s="31"/>
-      <c r="T65" s="31"/>
-      <c r="U65" s="31"/>
+      <c r="S65" s="39"/>
+      <c r="T65" s="39"/>
+      <c r="U65" s="39"/>
     </row>
     <row r="66" spans="1:21">
-      <c r="O66" s="31" t="s">
+      <c r="O66" s="39" t="s">
         <v>260</v>
       </c>
-      <c r="P66" s="31"/>
-      <c r="Q66" s="31"/>
-      <c r="R66" s="32" t="s">
+      <c r="P66" s="39"/>
+      <c r="Q66" s="39"/>
+      <c r="R66" s="42" t="s">
         <v>261</v>
       </c>
-      <c r="S66" s="32"/>
-      <c r="T66" s="32"/>
-      <c r="U66" s="32"/>
+      <c r="S66" s="42"/>
+      <c r="T66" s="42"/>
+      <c r="U66" s="42"/>
     </row>
     <row r="67" spans="1:21">
-      <c r="O67" s="31" t="s">
+      <c r="O67" s="39" t="s">
         <v>262</v>
       </c>
-      <c r="P67" s="31"/>
-      <c r="Q67" s="31"/>
-      <c r="R67" s="31" t="s">
+      <c r="P67" s="39"/>
+      <c r="Q67" s="39"/>
+      <c r="R67" s="39" t="s">
         <v>263</v>
       </c>
-      <c r="S67" s="31"/>
-      <c r="T67" s="31"/>
-      <c r="U67" s="31"/>
-    </row>
-    <row r="68" spans="1:21" ht="23.25">
+      <c r="S67" s="39"/>
+      <c r="T67" s="39"/>
+      <c r="U67" s="39"/>
+    </row>
+    <row r="68" spans="1:21" ht="22.8">
       <c r="A68" s="18" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="69" spans="1:21" ht="23.25">
+    <row r="69" spans="1:21" ht="22.8">
       <c r="A69" s="7" t="s">
         <v>282</v>
       </c>
@@ -9370,57 +9831,43 @@
         <v>274</v>
       </c>
     </row>
-    <row r="83" spans="14:17" ht="23.25">
+    <row r="83" spans="14:17" ht="22.8">
       <c r="N83" s="20" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="85" spans="14:17">
-      <c r="O85" s="30" t="s">
+      <c r="O85" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="P85" s="30"/>
+      <c r="P85" s="40"/>
       <c r="Q85" s="5" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="86" spans="14:17">
-      <c r="O86" s="31" t="s">
+      <c r="O86" s="39" t="s">
         <v>277</v>
       </c>
-      <c r="P86" s="31"/>
+      <c r="P86" s="39"/>
       <c r="Q86" s="19" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="87" spans="14:17" ht="25.5">
-      <c r="O87" s="31" t="s">
+    <row r="87" spans="14:17">
+      <c r="O87" s="39" t="s">
         <v>279</v>
       </c>
-      <c r="P87" s="31"/>
+      <c r="P87" s="39"/>
       <c r="Q87" s="19" t="s">
         <v>280</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="Q46:T46"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="Q41:T41"/>
-    <mergeCell ref="Q42:T42"/>
-    <mergeCell ref="Q43:T43"/>
-    <mergeCell ref="Q44:T44"/>
-    <mergeCell ref="Q45:T45"/>
+    <mergeCell ref="O85:P85"/>
+    <mergeCell ref="O86:P86"/>
+    <mergeCell ref="O87:P87"/>
     <mergeCell ref="R66:U66"/>
     <mergeCell ref="R67:U67"/>
     <mergeCell ref="O61:Q61"/>
@@ -9435,9 +9882,23 @@
     <mergeCell ref="R65:U65"/>
     <mergeCell ref="O66:Q66"/>
     <mergeCell ref="O67:Q67"/>
-    <mergeCell ref="O85:P85"/>
-    <mergeCell ref="O86:P86"/>
-    <mergeCell ref="O87:P87"/>
+    <mergeCell ref="Q46:T46"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="Q41:T41"/>
+    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="Q43:T43"/>
+    <mergeCell ref="Q44:T44"/>
+    <mergeCell ref="Q45:T45"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9445,15 +9906,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="8" t="s">
@@ -9463,7 +9924,7 @@
     <row r="2" spans="1:2">
       <c r="A2" s="8"/>
     </row>
-    <row r="3" spans="1:2" ht="18">
+    <row r="3" spans="1:2" ht="17.399999999999999">
       <c r="A3" s="7" t="s">
         <v>122</v>
       </c>
@@ -9548,7 +10009,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="23.25">
+    <row r="21" spans="1:8" ht="22.8">
       <c r="A21" s="18" t="s">
         <v>161</v>
       </c>
@@ -9556,7 +10017,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="18">
+    <row r="23" spans="1:8" ht="17.399999999999999">
       <c r="A23" s="7" t="s">
         <v>140</v>
       </c>
@@ -9571,7 +10032,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="18">
+    <row r="27" spans="1:8" ht="17.399999999999999">
       <c r="A27" s="7" t="s">
         <v>143</v>
       </c>
@@ -9613,50 +10074,50 @@
       <c r="A35" s="16"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30" t="s">
+      <c r="C36" s="40"/>
+      <c r="D36" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="31" t="s">
+      <c r="C37" s="42"/>
+      <c r="D37" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="31" t="s">
+      <c r="C38" s="42"/>
+      <c r="D38" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="31" t="s">
+      <c r="C39" s="42"/>
+      <c r="D39" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-    </row>
-    <row r="41" spans="1:6" ht="18">
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+    </row>
+    <row r="41" spans="1:6" ht="17.399999999999999">
       <c r="A41" s="7" t="s">
         <v>157</v>
       </c>
@@ -9691,17 +10152,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25">
+    <row r="1" spans="1:7" ht="22.8">
       <c r="A1" s="20" t="s">
         <v>166</v>
       </c>
@@ -9712,90 +10173,90 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30" t="s">
+      <c r="C5" s="40"/>
+      <c r="D5" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="31" t="s">
+      <c r="C6" s="42"/>
+      <c r="D6" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="31" t="s">
+      <c r="C7" s="42"/>
+      <c r="D7" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="42" t="s">
         <v>173</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="31" t="s">
+      <c r="C8" s="42"/>
+      <c r="D8" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="31" t="s">
+      <c r="C9" s="42"/>
+      <c r="D9" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="31" t="s">
+      <c r="C10" s="42"/>
+      <c r="D10" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="31" t="s">
+      <c r="C11" s="42"/>
+      <c r="D11" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-    </row>
-    <row r="14" spans="1:7" ht="23.25">
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+    </row>
+    <row r="14" spans="1:7" ht="22.8">
       <c r="A14" s="20" t="s">
         <v>181</v>
       </c>
@@ -9828,7 +10289,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="23.25">
+    <row r="22" spans="1:7" ht="22.8">
       <c r="A22" s="20" t="s">
         <v>186</v>
       </c>
@@ -9858,72 +10319,72 @@
         <v>191</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="23.25">
+    <row r="29" spans="1:7" ht="22.8">
       <c r="A29" s="20" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30" t="s">
+      <c r="C31" s="40"/>
+      <c r="D31" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="31" t="s">
+      <c r="C32" s="41"/>
+      <c r="D32" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="31" t="s">
+      <c r="C33" s="41"/>
+      <c r="D33" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="31" t="s">
+      <c r="C34" s="41"/>
+      <c r="D34" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="31" t="s">
+      <c r="C35" s="41"/>
+      <c r="D35" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-    </row>
-    <row r="38" spans="1:7" ht="23.25">
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+    </row>
+    <row r="38" spans="1:7" ht="22.8">
       <c r="A38" s="20" t="s">
         <v>202</v>
       </c>
@@ -9958,16 +10419,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
     <mergeCell ref="D11:G11"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
@@ -9982,22 +10433,32 @@
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="D9:G9"/>
     <mergeCell ref="D10:G10"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D35:G35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25">
+    <row r="1" spans="1:2" ht="22.8">
       <c r="A1" s="20" t="s">
         <v>304</v>
       </c>
@@ -10007,12 +10468,12 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="23.25">
+    <row r="3" spans="1:2" ht="22.8">
       <c r="A3" s="20" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18">
+    <row r="4" spans="1:2" ht="17.399999999999999">
       <c r="A4" s="7" t="s">
         <v>307</v>
       </c>
@@ -10023,19 +10484,19 @@
         <v>308</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18">
+    <row r="7" spans="1:2" ht="17.399999999999999">
       <c r="A7" s="7" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3"/>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="28" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="28" t="s">
         <v>311</v>
       </c>
     </row>
@@ -10044,7 +10505,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="23.25">
+    <row r="12" spans="1:2" ht="22.8">
       <c r="A12" s="20" t="s">
         <v>313</v>
       </c>
@@ -10060,78 +10521,78 @@
         <v>315</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="23.25">
+    <row r="16" spans="1:2" ht="22.8">
       <c r="A16" s="20" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="40" t="s">
         <v>317</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30" t="s">
+      <c r="C18" s="40"/>
+      <c r="D18" s="40" t="s">
         <v>318</v>
       </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="39" t="s">
         <v>319</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="32" t="s">
+      <c r="C19" s="39"/>
+      <c r="D19" s="42" t="s">
         <v>320</v>
       </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="39" t="s">
         <v>321</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31" t="s">
+      <c r="C20" s="39"/>
+      <c r="D20" s="39" t="s">
         <v>322</v>
       </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="39" t="s">
         <v>323</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="32" t="s">
+      <c r="C21" s="39"/>
+      <c r="D21" s="42" t="s">
         <v>324</v>
       </c>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="39" t="s">
         <v>325</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31" t="s">
+      <c r="C22" s="39"/>
+      <c r="D22" s="39" t="s">
         <v>326</v>
       </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="39" t="s">
         <v>327</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="32" t="s">
+      <c r="C23" s="39"/>
+      <c r="D23" s="42" t="s">
         <v>328</v>
       </c>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-    </row>
-    <row r="25" spans="1:6" ht="23.25">
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+    </row>
+    <row r="25" spans="1:6" ht="22.8">
       <c r="A25" s="20" t="s">
         <v>329</v>
       </c>
@@ -10142,22 +10603,22 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="28" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="28" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="28" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="28" t="s">
         <v>334</v>
       </c>
     </row>
@@ -10190,17 +10651,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25">
+    <row r="1" spans="1:2" ht="22.8">
       <c r="A1" s="18" t="s">
         <v>401</v>
       </c>
@@ -10235,7 +10696,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="23.25">
+    <row r="9" spans="1:2" ht="22.8">
       <c r="A9" s="20" t="s">
         <v>348</v>
       </c>
@@ -10275,7 +10736,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="23.25">
+    <row r="18" spans="1:2" ht="22.8">
       <c r="A18" s="20" t="s">
         <v>356</v>
       </c>
@@ -10306,26 +10767,26 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="28" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="28" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="28" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="28" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="23.25">
+    <row r="29" spans="1:2" ht="22.8">
       <c r="A29" s="20" t="s">
         <v>366</v>
       </c>
@@ -10345,7 +10806,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="23.25">
+    <row r="34" spans="1:2" ht="22.8">
       <c r="A34" s="20" t="s">
         <v>370</v>
       </c>
@@ -10391,18 +10852,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A49" workbookViewId="0">
       <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.25">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:3" ht="22.8">
+      <c r="A1" s="31" t="s">
         <v>404</v>
       </c>
     </row>
@@ -10461,8 +10922,8 @@
         <v>414</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="23.25">
-      <c r="A16" s="42" t="s">
+    <row r="16" spans="1:3" ht="22.8">
+      <c r="A16" s="31" t="s">
         <v>415</v>
       </c>
     </row>
@@ -10482,17 +10943,17 @@
       </c>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="32" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="23.25">
-      <c r="B22" s="44" t="s">
+    <row r="22" spans="2:8" ht="22.8">
+      <c r="B22" s="33" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="18">
-      <c r="B23" s="45" t="s">
+    <row r="23" spans="2:8" ht="17.399999999999999">
+      <c r="B23" s="34" t="s">
         <v>420</v>
       </c>
     </row>
@@ -10516,13 +10977,13 @@
         <v>424</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="23.25">
+    <row r="28" spans="2:8" ht="22.8">
       <c r="B28" s="20" t="s">
         <v>425</v>
       </c>
-      <c r="H28" s="46"/>
-    </row>
-    <row r="29" spans="2:8" ht="18">
+      <c r="H28" s="35"/>
+    </row>
+    <row r="29" spans="2:8" ht="17.399999999999999">
       <c r="C29" s="7" t="s">
         <v>426</v>
       </c>
@@ -10542,7 +11003,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="18">
+    <row r="33" spans="1:3" ht="17.399999999999999">
       <c r="C33" s="7" t="s">
         <v>430</v>
       </c>
@@ -10577,7 +11038,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="18">
+    <row r="40" spans="1:3" ht="17.399999999999999">
       <c r="C40" s="7" t="s">
         <v>437</v>
       </c>
@@ -10612,12 +11073,12 @@
         <v>443</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="23.25">
-      <c r="A48" s="42" t="s">
+    <row r="48" spans="1:3" ht="22.8">
+      <c r="A48" s="31" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="18">
+    <row r="49" spans="1:2" ht="17.399999999999999">
       <c r="A49" s="7" t="s">
         <v>461</v>
       </c>
@@ -10627,7 +11088,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="18">
+    <row r="51" spans="1:2" ht="17.399999999999999">
       <c r="A51" s="7" t="s">
         <v>446</v>
       </c>
@@ -10662,7 +11123,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="18">
+    <row r="58" spans="1:2" ht="17.399999999999999">
       <c r="A58" s="7" t="s">
         <v>453</v>
       </c>
@@ -10687,7 +11148,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="18">
+    <row r="63" spans="1:2" ht="17.399999999999999">
       <c r="A63" s="7" t="s">
         <v>458</v>
       </c>
@@ -10700,311 +11161,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L43"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:12" ht="18">
-      <c r="A1" s="7" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="47" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="18">
-      <c r="A3" s="7" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="B7" s="30" t="s">
-        <v>467</v>
-      </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="B8" s="33" t="s">
-        <v>468</v>
-      </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="31" t="s">
-        <v>469</v>
-      </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="B9" s="33" t="s">
-        <v>470</v>
-      </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="31" t="s">
-        <v>471</v>
-      </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="B10" s="33" t="s">
-        <v>472</v>
-      </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="31" t="s">
-        <v>473</v>
-      </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="B11" s="33" t="s">
-        <v>474</v>
-      </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="31" t="s">
-        <v>475</v>
-      </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="B12" s="33" t="s">
-        <v>476</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="31" t="s">
-        <v>477</v>
-      </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="B13" s="33" t="s">
-        <v>478</v>
-      </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="31" t="s">
-        <v>479</v>
-      </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-    </row>
-    <row r="15" spans="1:12" ht="18">
-      <c r="A15" s="7" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="9" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="9" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="9" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="9" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="18">
-      <c r="A21" s="7" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="8" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="48" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="8" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="10" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="8" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="10" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="10" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="10"/>
-    </row>
-    <row r="30" spans="1:1" ht="18">
-      <c r="A30" s="7" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="8" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="8" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="8"/>
-    </row>
-    <row r="35" spans="1:1" ht="18">
-      <c r="A35" s="7" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="8" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="10" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="3"/>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="49" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="10" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="3"/>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="8" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="10" t="s">
-        <v>503</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="E13:L13"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E7:L7"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="E9:L9"/>
-    <mergeCell ref="E10:L10"/>
-    <mergeCell ref="E11:L11"/>
-    <mergeCell ref="E12:L12"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>